--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtSuccess.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="1965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1:I23"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,15 +59,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random_register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>amy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +425,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -430,9 +434,8 @@
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -440,21 +443,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -463,18 +463,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户通过手机号登录成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it789123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债转成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +425,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -443,16 +443,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -463,16 +463,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -63,15 +63,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search_username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>债转成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DebtUtils.getFpId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_fpId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
